--- a/Data/Initial_caffeine_mol_desc.xlsx
+++ b/Data/Initial_caffeine_mol_desc.xlsx
@@ -28,64 +28,169 @@
     <t>smiles</t>
   </si>
   <si>
+    <t>CN(C(N1C)=O)C2=C(N(C)C(SCCC)=N2)C1=O</t>
+  </si>
+  <si>
+    <t>CN(C(N1C)=O)C2=C(N(C)C(NCCCCCCN)=N2)C1=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>CN(C(C(N(C)C(NCCCNCCCNCCCN)=N1)=C1N2C)=O)C2=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCCN3C(C(C=CC=C4)=C4C3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CCCCCN=[N+]=[N-])N=N5)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>CN(C(C(N(C)C(NCCCNCCCN)=N1)=C1N2C)=O)C2=O</t>
+  </si>
+  <si>
+    <t>CNCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
+  </si>
+  <si>
+    <t>CN(C(N1C)=O)C2=C(N(C)C(SC)=N2)C1=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>CN(C(N1C)=O)C2=C(N(C)C(NCCCCCN)=N2)C1=O</t>
+  </si>
+  <si>
+    <t>CN1C(N(C)CCCN(C=C(/C=C(C(OC)=O)\S)[N+]([O-])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN(C(C(N(C)C(NCCNCCCNCCN)=N1)=C1N2C)=O)C2=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=CC(CN=[N+]=[N-])=C6)N=N5)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>CN(C(N1C)=O)C2=C(N(C)C(NCCCCN)=N2)C1=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCN3C(C(C=CC=C4)=C4C3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=C(CN=[N+]=[N-])C=C6)N=N5)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>CN(C)CCN(C1=NC2=C(N1C)N(C)C(N(C)C2=O)=O)C</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>CN(C(N1C)=O)C2=C(N(C)C(NCC3=CNC=N3)=N2)C1=O</t>
+  </si>
+  <si>
+    <t>CN1C(N(C)CCN(C=C(/C=C(C(OC)=O)\S)[N+]([O-])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN(C(N1C)=O)C2=C(N(C)C=N2)C1=S</t>
+  </si>
+  <si>
+    <t>CN1C(NCCCC/N=C2SCC(N/2)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CCCCCCCCCCCCN=[N+]=[N-])N=N5)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>CNCCCCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C(S2)C=CC=C3)=NC2=C1C(=O)N(C)C(=O)N2C</t>
+  </si>
+  <si>
+    <t>CN(C(N1C)=O)C2=C(N(C)C(NCCN)=N2)C1=O</t>
+  </si>
+  <si>
+    <t>CNCCCCCCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
+  </si>
+  <si>
+    <t>CN(C(N1C)=O)C2=C(N(C)C(SC3=CC=CC=C3)=N2)C1=O</t>
+  </si>
+  <si>
+    <t>CN(C(N1C)=O)C2=C(N(C)C(SCC(C)C)=N2)C1=O</t>
+  </si>
+  <si>
+    <t>CN1C(SC2=NC3=C(N2)C=CC=C3)=NC2=C1C(=O)N(C)C(=O)N2C</t>
+  </si>
+  <si>
+    <t>CN1C(NCCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCC/N=C2SCC(N/2)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
+  </si>
+  <si>
     <t>CN1C(N(C)CCCCCCCCN(C=C(/C=C(C(OC)=O)\S)[N+]([O-])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
   </si>
   <si>
-    <t>CN(C(N1C)=O)C2=C(N(C)C(NCCCCN)=N2)C1=O</t>
+    <t>CN(C(N1C)=O)C2=C(N(C)C(NCCCNC(C)=O)=N2)C1=O</t>
+  </si>
+  <si>
+    <t>CN(C(C(N(C)C(NCCNCCN)=N1)=C1N2C)=O)C2=O</t>
+  </si>
+  <si>
+    <t>CN(C(N1C)=O)C2=C(N(C)C(NCCNC(C)=O)=N2)C1=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCCN3C(C(C=CC=C4)=C4C3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>CN(C(N1C)=O)C2=C(N(C)C(SCC)=N2)C1=O</t>
+  </si>
+  <si>
+    <t>CN1C(NCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
+  </si>
+  <si>
+    <t>CN1C(N(C)CCCCCCN(C=C(/C=C(C(OC)=O)\S)[N+]([O-])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
   </si>
   <si>
     <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CCCCCCCCN=[N+]=[N-])N=N5)N2C)N(C)C(N1C)=O</t>
   </si>
   <si>
+    <t>CN(C(N1C)=S)C2=C(N(C)C=N2)C1=S</t>
+  </si>
+  <si>
+    <t>CNCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
+  </si>
+  <si>
+    <t>CN(C(C(N(C)C(NCCCNCCCCNCCCN)=N1)=C1N2C)=O)C2=O</t>
+  </si>
+  <si>
+    <t>CN(C(N1C)=O)C2=C(N(C)C(NCCCCNC(C)=O)=N2)C1=O</t>
+  </si>
+  <si>
+    <t>CN(C(C(N(C)C(NCCCCNCCCN)=N1)=C1N2C)=O)C2=O</t>
+  </si>
+  <si>
+    <t>CN(C(N1C)=O)C2=C(N(C)C(SC(N3CCCC3)=S)=N2)C1=O</t>
+  </si>
+  <si>
+    <t>O=C1C2=C(N=C(NCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
+  </si>
+  <si>
+    <t>CN(C(N1C)=O)C2=C(N(C)C(SCC(C)(C)C)=N2)C1=O</t>
+  </si>
+  <si>
     <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=C(CN=[N+]=[N-])C=CC=C6)N=N5)N2C)N(C)C(N1C)=O</t>
   </si>
   <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=C(CN=[N+]=[N-])C=C6)N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
     <t>O=C1C2=C(N=C(NCCCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
   </si>
   <si>
-    <t>CN(C(C(N(C)C(NCCCNCCCCNCCCN)=N1)=C1N2C)=O)C2=O</t>
-  </si>
-  <si>
-    <t>CN(C(N1C)=O)C2=C(N(C)C(SC3=CC=CC=C3)=N2)C1=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CNCCCCCCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CNCCCCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCN3C(C(C=CC=C4)=C4C3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN(C(N1C)=O)C2=C(N(C)C(NCCCCNC(C)=O)=N2)C1=O</t>
-  </si>
-  <si>
-    <t>CN(C(C(N(C)C(NCCNCCCNCCN)=N1)=C1N2C)=O)C2=O</t>
-  </si>
-  <si>
-    <t>CN(C)CCN(C1=NC2=C(N1C)N(C)C(N(C)C2=O)=O)C</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN(C(N1C)=O)C2=C(N(C)C(NCC3=CNC=N3)=N2)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCCCCN(C=C(/C=C(C(OC)=O)\S)[N+]([O-])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN(C(N1C)=O)C2=C(N(C)C(SCC(C)C)=N2)C1=O</t>
-  </si>
-  <si>
-    <t>CN(C(C(N(C)C(NCCNCCN)=N1)=C1N2C)=O)C2=O</t>
+    <t>CN(C(N1C)=O)C2=C(N(C)C=N2)C1=O</t>
   </si>
   <si>
     <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CCCN=[N+]=[N-])N=N5)N2C)N(C)C(N1C)=O</t>
@@ -94,112 +199,7 @@
     <t>CN(C(N1C)=O)C2=C(N(C)C(NCCCN)=N2)C1=O</t>
   </si>
   <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CC6=CC=CC(CN=[N+]=[N-])=C6)N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN(C(N1C)=O)C2=C(N(C)C(SC(N3CCCC3)=S)=N2)C1=O</t>
-  </si>
-  <si>
-    <t>CN(C(N1C)=O)C2=C(N(C)C(SC)=N2)C1=O</t>
-  </si>
-  <si>
-    <t>CN(C(N1C)=O)C2=C(N(C)C(SCC(C)(C)C)=N2)C1=O</t>
-  </si>
-  <si>
-    <t>CN(C(C(N(C)C(NCCCNCCCN)=N1)=C1N2C)=O)C2=O</t>
-  </si>
-  <si>
-    <t>CN(C(C(N(C)C(NCCCCNCCCN)=N1)=C1N2C)=O)C2=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCN3C(CCC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CNCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCN3C(C(C=CC=C4)=C4C3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN(C(N1C)=O)C2=C(N(C)C(NCCCCCN)=N2)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN(C(N1C)=O)C2=C(N(C)C(SCCC)=N2)C1=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCN3C(C=CC3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(NCCCCN3C(C(C=CC=C4)=C4C3=O)=O)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN(C(N1C)=O)C2=C(N(C)C(NCCCCCCN)=N2)C1=O</t>
-  </si>
-  <si>
-    <t>CN(C(N1C)=O)C2=C(N(C)C=N2)C1=S</t>
-  </si>
-  <si>
-    <t>CN(C(N1C)=O)C2=C(N(C)C(NCCCNC(C)=O)=N2)C1=O</t>
-  </si>
-  <si>
-    <t>CN(C(N1C)=O)C2=C(N(C)C(SCC)=N2)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(SC2=NC3=C(S2)C=CC=C3)=NC2=C1C(=O)N(C)C(=O)N2C</t>
-  </si>
-  <si>
     <t>CN1C(NCC/N=C2SCC(N/2)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CNCCCN(C)C1=NC2=C(N(C(N(C2=O)C)=O)C)N1C</t>
-  </si>
-  <si>
-    <t>CN1C(NCCNC(CSC(N2CCCC2)=S)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCCN(C=C(/C=C(C(OC)=O)\S)[N+]([O-])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CCCCCCCCCCCCN=[N+]=[N-])N=N5)N2C)N(C)C(N1C)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCCC/N=C2SCC(N/2)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(NCCC/N=C2SCC(N/2)=O)=NC3=C1C(N(C)C(N3C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN1C(SC2=NC3=C(N2)C=CC=C3)=NC2=C1C(=O)N(C)C(=O)N2C</t>
-  </si>
-  <si>
-    <t>CN(C(N1C)=S)C2=C(N(C)C=N2)C1=S</t>
-  </si>
-  <si>
-    <t>CN(C(N1C)=O)C2=C(N(C)C(NCCNC(C)=O)=N2)C1=O</t>
-  </si>
-  <si>
-    <t>CN1C(N(C)CCN(C=C(/C=C(C(OC)=O)\S)[N+]([O-])=O)C)=NC2=C1C(N(C)C(N2C)=O)=O</t>
-  </si>
-  <si>
-    <t>CN(C(N1C)=O)C2=C(N(C)C(NCCN)=N2)C1=O</t>
-  </si>
-  <si>
-    <t>CN(C(C(N(C)C(NCCCNCCCNCCCN)=N1)=C1N2C)=O)C2=O</t>
-  </si>
-  <si>
-    <t>CN(C(N1C)=O)C2=C(N(C)C=N2)C1=O</t>
-  </si>
-  <si>
-    <t>O=C1C2=C(N=C(SC3=NC4=C(C=CC=C4)N3CC5=CN(CCCCCN=[N+]=[N-])N=N5)N2C)N(C)C(N1C)=O</t>
   </si>
 </sst>
 </file>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.013511240412066</v>
+        <v>1.336646642390056</v>
       </c>
       <c r="C2">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>25.12</v>
+        <v>29.17647058823529</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -599,13 +599,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.266080380502366</v>
+        <v>1.21399875952233</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>21.85</v>
+        <v>20.65217391304348</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -616,13 +616,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.195198104031395</v>
+        <v>1.325659368649944</v>
       </c>
       <c r="C4">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>26.57534246575343</v>
+        <v>23.91666666666667</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -633,13 +633,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.261500115193157</v>
+        <v>1.217306427119288</v>
       </c>
       <c r="C5">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>29.72307692307692</v>
+        <v>19.72881355932203</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -650,13 +650,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.263151379383168</v>
+        <v>1.286366629365927</v>
       </c>
       <c r="C6">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>29.72307692307692</v>
+        <v>24.84615384615385</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -667,13 +667,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.298871205944493</v>
+        <v>1.240205415804051</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>24.91304347826087</v>
+        <v>28.53125</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -684,13 +684,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.197152184616587</v>
+        <v>1.249876144452174</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>19.38709677419355</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -701,13 +701,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.334248015296696</v>
+        <v>1.382743707186569</v>
       </c>
       <c r="C9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>31.37142857142857</v>
+        <v>21.85</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -718,13 +718,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.325659368649944</v>
+        <v>1.464971688212719</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>23.91666666666667</v>
+        <v>32.71428571428572</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -735,13 +735,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.254879310765501</v>
+        <v>1.356531459781846</v>
       </c>
       <c r="C11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -752,13 +752,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.292515997105032</v>
+        <v>1.236616009552174</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>19.73076923076923</v>
+        <v>21.20930232558139</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -769,13 +769,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.315300153547637</v>
+        <v>1.109619662528195</v>
       </c>
       <c r="C13">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D13">
-        <v>25.59183673469388</v>
+        <v>28.23333333333333</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -786,13 +786,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.356268277990249</v>
+        <v>1.184802662330291</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14">
-        <v>22.48888888888889</v>
+        <v>20.52830188679245</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -803,13 +803,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.184802662330291</v>
+        <v>1.263115596518855</v>
       </c>
       <c r="C15">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D15">
-        <v>20.52830188679245</v>
+        <v>29.72307692307692</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -820,13 +820,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.405394482158055</v>
+        <v>1.266080380502366</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>21.20930232558139</v>
+        <v>21.85</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -837,13 +837,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.356531459781846</v>
+        <v>1.29928533897907</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D17">
-        <v>24.66666666666667</v>
+        <v>26.43478260869565</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -854,13 +854,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.246717278210448</v>
+        <v>1.263151379383168</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D18">
-        <v>25.5</v>
+        <v>29.72307692307692</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -871,13 +871,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.041369169034625</v>
+        <v>1.325640145037968</v>
       </c>
       <c r="C19">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D19">
-        <v>26.20289855072464</v>
+        <v>26.75</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -888,13 +888,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.298928257085879</v>
+        <v>1.405394482158055</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D20">
-        <v>27.83783783783784</v>
+        <v>21.20930232558139</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -905,13 +905,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.224960018956539</v>
+        <v>1.334953833466182</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>25.76744186046512</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -922,13 +922,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.289647351907429</v>
+        <v>1.246717278210448</v>
       </c>
       <c r="C22">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>30.17241379310345</v>
+        <v>25.5</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -939,13 +939,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.30892217950993</v>
+        <v>1.099137290472985</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D23">
-        <v>22.59459459459459</v>
+        <v>29.05263157894737</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
@@ -956,13 +956,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.263115596518855</v>
+        <v>1.129570122715416</v>
       </c>
       <c r="C24">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>29.72307692307692</v>
+        <v>33.91666666666666</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
@@ -973,13 +973,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.267138945631643</v>
+        <v>1.339858293681315</v>
       </c>
       <c r="C25">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D25">
-        <v>35.12820512820513</v>
+        <v>28.76595744680851</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
@@ -990,13 +990,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.464971688212719</v>
+        <v>1.230791888536892</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D26">
-        <v>32.71428571428572</v>
+        <v>29.33333333333333</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
@@ -1007,13 +1007,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.281598001892492</v>
+        <v>1.152903192687266</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D27">
-        <v>26.7</v>
+        <v>24.61176470588235</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
@@ -1024,13 +1024,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.249876144452174</v>
+        <v>1.292515997105032</v>
       </c>
       <c r="C28">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>20.83333333333333</v>
+        <v>19.73076923076923</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -1041,13 +1041,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.221161290387936</v>
+        <v>1.369547179355366</v>
       </c>
       <c r="C29">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D29">
-        <v>20.35294117647059</v>
+        <v>38.86486486486486</v>
       </c>
       <c r="E29" t="s">
         <v>31</v>
@@ -1058,13 +1058,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.341478201994412</v>
+        <v>1.299464778268083</v>
       </c>
       <c r="C30">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>25.52380952380953</v>
+        <v>23.47058823529412</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
@@ -1075,13 +1075,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.230791888536892</v>
+        <v>1.254879310765501</v>
       </c>
       <c r="C31">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D31">
-        <v>29.33333333333333</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
@@ -1092,13 +1092,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.382743707186569</v>
+        <v>1.334248015296696</v>
       </c>
       <c r="C32">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>21.85</v>
+        <v>31.37142857142857</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
@@ -1109,13 +1109,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.29928533897907</v>
+        <v>1.298928257085879</v>
       </c>
       <c r="C33">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>26.43478260869565</v>
+        <v>27.83783783783784</v>
       </c>
       <c r="E33" t="s">
         <v>35</v>
@@ -1126,13 +1126,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.236616009552174</v>
+        <v>1.330807672127139</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D34">
-        <v>21.20930232558139</v>
+        <v>32.42105263157895</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -1160,13 +1160,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.325640145037968</v>
+        <v>1.384709279458601</v>
       </c>
       <c r="C36">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D36">
-        <v>26.75</v>
+        <v>29.86363636363636</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
@@ -1177,13 +1177,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.336646642390056</v>
+        <v>1.013511240412066</v>
       </c>
       <c r="C37">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D37">
-        <v>29.17647058823529</v>
+        <v>25.12</v>
       </c>
       <c r="E37" t="s">
         <v>39</v>
@@ -1194,13 +1194,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.334953833466182</v>
+        <v>1.399934540552622</v>
       </c>
       <c r="C38">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>25.76744186046512</v>
+        <v>23.19047619047619</v>
       </c>
       <c r="E38" t="s">
         <v>40</v>
@@ -1211,13 +1211,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.286366629365927</v>
+        <v>1.224960018956539</v>
       </c>
       <c r="C39">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D39">
-        <v>24.84615384615385</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -1228,13 +1228,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.21399875952233</v>
+        <v>1.385918856504115</v>
       </c>
       <c r="C40">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40">
-        <v>20.65217391304348</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
         <v>42</v>
@@ -1245,13 +1245,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.129570122715416</v>
+        <v>1.315300153547637</v>
       </c>
       <c r="C41">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D41">
-        <v>33.91666666666666</v>
+        <v>25.59183673469388</v>
       </c>
       <c r="E41" t="s">
         <v>43</v>
@@ -1262,13 +1262,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.399934540552622</v>
+        <v>1.402915277158741</v>
       </c>
       <c r="C42">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D42">
-        <v>23.19047619047619</v>
+        <v>30.7741935483871</v>
       </c>
       <c r="E42" t="s">
         <v>44</v>
@@ -1279,13 +1279,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.402915277158741</v>
+        <v>1.22951684924643</v>
       </c>
       <c r="C43">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D43">
-        <v>30.7741935483871</v>
+        <v>31.18518518518519</v>
       </c>
       <c r="E43" t="s">
         <v>45</v>
@@ -1296,13 +1296,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.369547179355366</v>
+        <v>1.041369169034625</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D44">
-        <v>38.86486486486486</v>
+        <v>26.20289855072464</v>
       </c>
       <c r="E44" t="s">
         <v>46</v>
@@ -1313,13 +1313,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.385086217036048</v>
+        <v>1.195198104031395</v>
       </c>
       <c r="C45">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D45">
-        <v>31.12195121951219</v>
+        <v>26.57534246575343</v>
       </c>
       <c r="E45" t="s">
         <v>47</v>
@@ -1330,13 +1330,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.389810957850826</v>
+        <v>0.8902773347186462</v>
       </c>
       <c r="C46">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D46">
-        <v>21.20930232558139</v>
+        <v>41.91666666666666</v>
       </c>
       <c r="E46" t="s">
         <v>48</v>
@@ -1347,13 +1347,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.22951684924643</v>
+        <v>1.389810957850826</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D47">
-        <v>31.18518518518519</v>
+        <v>21.20930232558139</v>
       </c>
       <c r="E47" t="s">
         <v>49</v>
@@ -1364,13 +1364,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.109619662528195</v>
+        <v>1.197152184616587</v>
       </c>
       <c r="C48">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D48">
-        <v>28.23333333333333</v>
+        <v>19.38709677419355</v>
       </c>
       <c r="E48" t="s">
         <v>50</v>
@@ -1381,13 +1381,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.152903192687266</v>
+        <v>1.356268277990249</v>
       </c>
       <c r="C49">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D49">
-        <v>24.61176470588235</v>
+        <v>22.48888888888889</v>
       </c>
       <c r="E49" t="s">
         <v>51</v>
@@ -1398,13 +1398,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.339858293681315</v>
+        <v>1.221161290387936</v>
       </c>
       <c r="C50">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D50">
-        <v>28.76595744680851</v>
+        <v>20.35294117647059</v>
       </c>
       <c r="E50" t="s">
         <v>52</v>
@@ -1415,13 +1415,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.384709279458601</v>
+        <v>1.267138945631643</v>
       </c>
       <c r="C51">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D51">
-        <v>29.86363636363636</v>
+        <v>35.12820512820513</v>
       </c>
       <c r="E51" t="s">
         <v>53</v>
@@ -1432,13 +1432,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.330807672127139</v>
+        <v>1.341478201994412</v>
       </c>
       <c r="C52">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52">
-        <v>32.42105263157895</v>
+        <v>25.52380952380953</v>
       </c>
       <c r="E52" t="s">
         <v>54</v>
@@ -1449,13 +1449,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.8902773347186462</v>
+        <v>1.281598001892492</v>
       </c>
       <c r="C53">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D53">
-        <v>41.91666666666666</v>
+        <v>26.7</v>
       </c>
       <c r="E53" t="s">
         <v>55</v>
@@ -1466,13 +1466,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.385918856504115</v>
+        <v>1.261500115193157</v>
       </c>
       <c r="C54">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D54">
-        <v>24</v>
+        <v>29.72307692307692</v>
       </c>
       <c r="E54" t="s">
         <v>56</v>
@@ -1483,13 +1483,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.099137290472985</v>
+        <v>1.298871205944493</v>
       </c>
       <c r="C55">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D55">
-        <v>29.05263157894737</v>
+        <v>24.91304347826087</v>
       </c>
       <c r="E55" t="s">
         <v>57</v>
@@ -1500,13 +1500,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.299464778268083</v>
+        <v>1.278260063585561</v>
       </c>
       <c r="C56">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D56">
-        <v>23.47058823529412</v>
+        <v>25.91666666666667</v>
       </c>
       <c r="E56" t="s">
         <v>58</v>
@@ -1517,13 +1517,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.217306427119288</v>
+        <v>1.289647351907429</v>
       </c>
       <c r="C57">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D57">
-        <v>19.72881355932203</v>
+        <v>30.17241379310345</v>
       </c>
       <c r="E57" t="s">
         <v>59</v>
@@ -1534,13 +1534,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.278260063585561</v>
+        <v>1.30892217950993</v>
       </c>
       <c r="C58">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D58">
-        <v>25.91666666666667</v>
+        <v>22.59459459459459</v>
       </c>
       <c r="E58" t="s">
         <v>60</v>
@@ -1551,13 +1551,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.240205415804051</v>
+        <v>1.385086217036048</v>
       </c>
       <c r="C59">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D59">
-        <v>28.53125</v>
+        <v>31.12195121951219</v>
       </c>
       <c r="E59" t="s">
         <v>61</v>
